--- a/data/trans_dic/IP17-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP17-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>31,31%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,17; 27,23</t>
+          <t>9,44; 37,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,29; 28,39</t>
+          <t>0,0; 12,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,41; 26,29</t>
+          <t>8,22; 41,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 24,07</t>
+          <t>16,26; 65,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,48; 27,7</t>
+          <t>14,65; 48,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 27,23</t>
+          <t>8,09; 39,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,46; 30,02</t>
+          <t>4,62; 37,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,3; 20,18</t>
+          <t>13,66; 47,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,4; 25,98</t>
+          <t>13,54; 35,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,06; 26,73</t>
+          <t>5,3; 22,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,13; 26,49</t>
+          <t>9,68; 30,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,78; 21,19</t>
+          <t>18,84; 48,61</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>17,56%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,75; 27,98</t>
+          <t>18,17; 27,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,79; 26,16</t>
+          <t>19,29; 28,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,92; 23,57</t>
+          <t>17,41; 26,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,76; 20,82</t>
+          <t>15,75; 24,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,28; 22,58</t>
+          <t>18,48; 27,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,53; 29,86</t>
+          <t>18,23; 27,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,55; 22,38</t>
+          <t>20,46; 30,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,37; 21,93</t>
+          <t>11,3; 20,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,34; 23,99</t>
+          <t>19,4; 25,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,46; 26,21</t>
+          <t>20,06; 26,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,18; 21,24</t>
+          <t>20,13; 26,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,01; 19,56</t>
+          <t>14,78; 21,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>16,17%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 37,5</t>
+          <t>17,6; 28,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,88</t>
+          <t>21,06; 31,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,22; 41,47</t>
+          <t>14,1; 23,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,26; 65,5</t>
+          <t>12,75; 23,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,65; 48,31</t>
+          <t>12,09; 22,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 39,48</t>
+          <t>16,14; 27,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 37,07</t>
+          <t>14,85; 24,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 47,03</t>
+          <t>10,42; 20,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,54; 35,48</t>
+          <t>16,75; 23,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 22,65</t>
+          <t>19,54; 27,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,68; 30,91</t>
+          <t>16,08; 22,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,84; 48,61</t>
+          <t>12,64; 19,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>16,14%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 28,31</t>
+          <t>18,75; 27,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,06; 31,75</t>
+          <t>16,79; 26,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,1; 23,64</t>
+          <t>13,92; 23,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,75; 23,54</t>
+          <t>11,76; 20,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,09; 22,23</t>
+          <t>13,28; 22,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,14; 27,21</t>
+          <t>19,53; 29,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,85; 24,65</t>
+          <t>13,55; 22,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,42; 20,87</t>
+          <t>12,37; 21,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,75; 23,93</t>
+          <t>17,34; 23,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,54; 27,56</t>
+          <t>19,46; 26,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,08; 22,8</t>
+          <t>15,18; 21,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,64; 19,95</t>
+          <t>13,01; 19,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP17-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP17-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,44; 37,5</t>
+          <t>8,97; 36,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,88</t>
+          <t>0,0; 16,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,22; 41,47</t>
+          <t>7,69; 40,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,65; 48,31</t>
+          <t>14,06; 48,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 39,48</t>
+          <t>10,07; 43,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 37,07</t>
+          <t>4,78; 36,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,54; 35,48</t>
+          <t>12,3; 34,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 22,65</t>
+          <t>5,13; 21,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,68; 30,91</t>
+          <t>10,26; 31,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,53; 27,5</t>
+          <t>15,61; 27,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 31,62</t>
+          <t>18,52; 31,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,74; 26,85</t>
+          <t>14,69; 27,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 19,66</t>
+          <t>9,01; 19,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,64; 25,74</t>
+          <t>12,87; 24,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,63; 30,16</t>
+          <t>16,76; 30,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,66; 24,67</t>
+          <t>12,82; 24,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 17,11</t>
+          <t>7,58; 17,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,42; 24,6</t>
+          <t>16,52; 24,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,72; 28,83</t>
+          <t>19,79; 29,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,43; 23,87</t>
+          <t>15,83; 24,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 17,09</t>
+          <t>9,38; 17,03</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,17; 27,23</t>
+          <t>18,05; 27,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,29; 28,39</t>
+          <t>18,83; 28,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 26,29</t>
+          <t>16,59; 25,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,75; 24,07</t>
+          <t>15,15; 23,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,48; 27,7</t>
+          <t>18,53; 27,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,23; 27,23</t>
+          <t>18,31; 27,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,46; 30,02</t>
+          <t>20,82; 30,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,3; 20,18</t>
+          <t>10,99; 19,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,4; 25,98</t>
+          <t>19,78; 26,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,06; 26,73</t>
+          <t>20,15; 26,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,13; 26,49</t>
+          <t>20,0; 26,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,78; 21,19</t>
+          <t>14,74; 20,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,6; 28,31</t>
+          <t>17,41; 28,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,06; 31,75</t>
+          <t>20,26; 31,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,1; 23,64</t>
+          <t>13,97; 23,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 23,54</t>
+          <t>12,26; 22,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,09; 22,23</t>
+          <t>12,36; 22,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 27,21</t>
+          <t>15,83; 26,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,85; 24,65</t>
+          <t>14,63; 24,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,42; 20,87</t>
+          <t>10,58; 20,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 23,93</t>
+          <t>16,48; 23,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,54; 27,56</t>
+          <t>19,5; 27,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,08; 22,8</t>
+          <t>15,86; 22,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 19,95</t>
+          <t>12,64; 20,0</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,75; 27,98</t>
+          <t>18,44; 28,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,79; 26,16</t>
+          <t>16,16; 25,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,92; 23,57</t>
+          <t>14,09; 23,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,76; 20,82</t>
+          <t>11,35; 20,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,28; 22,58</t>
+          <t>13,26; 22,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,53; 29,86</t>
+          <t>19,39; 29,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,55; 22,38</t>
+          <t>13,74; 22,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,37; 21,93</t>
+          <t>12,53; 21,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,34; 23,99</t>
+          <t>17,31; 23,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,46; 26,21</t>
+          <t>19,14; 25,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,18; 21,24</t>
+          <t>14,93; 21,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,01; 19,56</t>
+          <t>13,16; 19,73</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,96; 24,96</t>
+          <t>20,0; 25,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,18; 25,27</t>
+          <t>20,23; 25,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,19; 22,11</t>
+          <t>17,63; 22,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,22; 19,77</t>
+          <t>15,19; 20,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,38; 22,11</t>
+          <t>17,18; 22,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,19; 25,42</t>
+          <t>20,24; 25,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,03; 22,98</t>
+          <t>18,06; 22,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,02; 17,96</t>
+          <t>12,9; 18,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,4; 22,84</t>
+          <t>19,33; 22,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,05; 24,67</t>
+          <t>20,94; 24,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,44; 21,8</t>
+          <t>18,3; 21,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,81; 18,17</t>
+          <t>14,78; 18,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP17-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP17-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,97; 36,44</t>
+          <t>9,35; 35,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,57</t>
+          <t>0,0; 14,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 40,98</t>
+          <t>7,69; 37,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,26; 65,5</t>
+          <t>15,57; 62,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 48,36</t>
+          <t>14,06; 46,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,07; 43,05</t>
+          <t>7,46; 40,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 36,42</t>
+          <t>4,52; 38,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,66; 47,03</t>
+          <t>12,64; 49,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,3; 34,62</t>
+          <t>14,33; 36,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 21,61</t>
+          <t>5,07; 21,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,26; 31,25</t>
+          <t>9,56; 29,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,84; 48,61</t>
+          <t>17,49; 47,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,61; 27,45</t>
+          <t>15,24; 27,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,52; 31,86</t>
+          <t>18,8; 31,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,69; 27,22</t>
+          <t>15,52; 27,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,01; 19,75</t>
+          <t>8,91; 20,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 24,93</t>
+          <t>13,36; 25,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,76; 30,33</t>
+          <t>17,11; 30,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,82; 24,39</t>
+          <t>12,81; 24,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,58; 17,56</t>
+          <t>7,57; 17,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,52; 24,33</t>
+          <t>16,12; 24,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,79; 29,02</t>
+          <t>19,69; 28,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,83; 24,58</t>
+          <t>15,79; 24,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,38; 17,03</t>
+          <t>9,27; 16,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 27,06</t>
+          <t>18,44; 27,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,83; 28,55</t>
+          <t>18,88; 28,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,59; 25,71</t>
+          <t>17,07; 26,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,15; 23,94</t>
+          <t>15,38; 23,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,53; 27,64</t>
+          <t>18,24; 27,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 27,2</t>
+          <t>18,43; 28,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,82; 30,06</t>
+          <t>20,59; 29,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,99; 19,93</t>
+          <t>11,18; 19,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,78; 26,36</t>
+          <t>19,75; 26,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,15; 26,61</t>
+          <t>19,93; 26,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,0; 26,68</t>
+          <t>19,96; 26,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 20,67</t>
+          <t>14,9; 20,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 28,92</t>
+          <t>17,18; 28,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,26; 31,33</t>
+          <t>20,81; 31,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,97; 23,67</t>
+          <t>13,94; 23,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,26; 22,87</t>
+          <t>12,17; 23,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 22,24</t>
+          <t>12,26; 22,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 26,67</t>
+          <t>16,05; 26,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,63; 24,86</t>
+          <t>15,42; 24,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,58; 20,43</t>
+          <t>10,67; 21,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,48; 23,87</t>
+          <t>16,63; 23,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,5; 27,38</t>
+          <t>19,54; 27,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,86; 22,65</t>
+          <t>15,76; 22,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 20,0</t>
+          <t>12,73; 20,23</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,44; 28,18</t>
+          <t>18,51; 27,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,16; 25,61</t>
+          <t>16,56; 25,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,09; 23,12</t>
+          <t>13,9; 23,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,35; 20,82</t>
+          <t>11,48; 20,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,26; 22,55</t>
+          <t>13,56; 22,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,39; 29,98</t>
+          <t>19,49; 29,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,74; 22,86</t>
+          <t>13,98; 22,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,53; 21,78</t>
+          <t>12,63; 22,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,31; 23,73</t>
+          <t>17,5; 24,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,14; 25,82</t>
+          <t>19,05; 26,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,93; 21,4</t>
+          <t>14,95; 21,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,16; 19,73</t>
+          <t>13,08; 19,6</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,0; 25,04</t>
+          <t>20,09; 25,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,23; 25,15</t>
+          <t>20,18; 25,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,63; 22,27</t>
+          <t>17,44; 22,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,19; 20,17</t>
+          <t>15,09; 20,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,18; 22,1</t>
+          <t>17,32; 22,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,24; 25,56</t>
+          <t>20,65; 25,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,06; 22,91</t>
+          <t>18,34; 23,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,9; 18,0</t>
+          <t>13,06; 17,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,33; 22,75</t>
+          <t>19,18; 22,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,94; 24,66</t>
+          <t>21,07; 24,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,3; 21,67</t>
+          <t>18,4; 21,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,78; 18,24</t>
+          <t>14,78; 18,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP17-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP17-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>15,03%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 35,6</t>
+          <t>14,94; 26,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,67</t>
+          <t>17,27; 29,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 37,61</t>
+          <t>12,73; 23,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,57; 62,64</t>
+          <t>9,86; 20,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 46,24</t>
+          <t>15,67; 26,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 40,69</t>
+          <t>15,71; 27,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 38,12</t>
+          <t>15,96; 27,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,64; 49,22</t>
+          <t>10,23; 21,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,33; 36,81</t>
+          <t>17,19; 24,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,07; 21,05</t>
+          <t>18,1; 26,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,56; 29,73</t>
+          <t>15,72; 23,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 47,73</t>
+          <t>11,28; 19,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>17,67%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 27,16</t>
+          <t>18,48; 27,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,8; 31,36</t>
+          <t>18,23; 27,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,52; 27,28</t>
+          <t>20,46; 30,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,91; 20,0</t>
+          <t>11,31; 20,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 25,13</t>
+          <t>18,17; 27,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,11; 30,44</t>
+          <t>19,29; 28,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,81; 24,88</t>
+          <t>17,41; 26,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 17,67</t>
+          <t>15,69; 24,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 24,58</t>
+          <t>19,4; 25,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,69; 28,7</t>
+          <t>20,06; 26,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,79; 24,44</t>
+          <t>20,13; 26,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,27; 16,64</t>
+          <t>14,94; 21,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>15,45%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,44; 27,35</t>
+          <t>12,09; 22,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,88; 28,25</t>
+          <t>16,14; 27,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 26,11</t>
+          <t>14,85; 24,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,38; 23,88</t>
+          <t>8,03; 20,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,24; 27,13</t>
+          <t>17,6; 28,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,43; 28,06</t>
+          <t>21,06; 31,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,59; 29,74</t>
+          <t>14,1; 23,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,18; 19,87</t>
+          <t>12,62; 23,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,75; 26,41</t>
+          <t>16,75; 23,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,93; 26,7</t>
+          <t>19,54; 27,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,96; 26,54</t>
+          <t>16,08; 22,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 20,94</t>
+          <t>11,41; 19,69</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>16,2%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,18; 28,57</t>
+          <t>13,28; 22,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,81; 31,38</t>
+          <t>19,53; 29,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,94; 23,82</t>
+          <t>13,55; 22,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,17; 23,53</t>
+          <t>12,48; 22,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,26; 22,1</t>
+          <t>18,75; 27,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,05; 26,32</t>
+          <t>16,79; 26,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,42; 24,69</t>
+          <t>13,92; 23,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,67; 21,58</t>
+          <t>11,84; 21,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 23,9</t>
+          <t>17,34; 23,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,54; 27,22</t>
+          <t>19,46; 26,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 22,31</t>
+          <t>15,18; 21,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,73; 20,23</t>
+          <t>13,0; 19,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>16,25%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,51; 27,85</t>
+          <t>17,38; 22,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,56; 25,76</t>
+          <t>20,19; 25,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,9; 23,34</t>
+          <t>18,03; 22,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,48; 20,74</t>
+          <t>12,55; 17,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,56; 22,87</t>
+          <t>19,96; 24,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,49; 29,73</t>
+          <t>20,18; 25,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,98; 22,94</t>
+          <t>17,19; 22,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,63; 22,3</t>
+          <t>15,09; 19,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,5; 24,09</t>
+          <t>19,4; 22,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,05; 26,01</t>
+          <t>21,05; 24,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,95; 21,3</t>
+          <t>18,44; 21,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,08; 19,6</t>
+          <t>14,46; 18,06</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>22,39%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>22,71%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>19,72%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>17,42%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>19,62%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>22,98%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>20,47%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>15,3%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>21,05%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>22,84%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>20,08%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>16,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>20,09; 25,18</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>20,18; 25,29</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,44; 22,18</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>15,09; 20,16</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>17,32; 22,32</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>20,65; 25,9</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>18,34; 23,08</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>13,06; 17,82</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>19,18; 22,81</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>21,07; 24,77</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>18,4; 21,81</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>14,78; 18,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
